--- a/Code/Results/Cases/Case_2_182/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_182/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.017129166467498</v>
+        <v>1.050050253866516</v>
       </c>
       <c r="C2">
-        <v>0.7691706015198463</v>
+        <v>0.2310093480059265</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.6296135168160788</v>
+        <v>0.5929007669134876</v>
       </c>
       <c r="F2">
-        <v>2.455711946742781</v>
+        <v>2.3791024842524</v>
       </c>
       <c r="G2">
-        <v>0.7947958880584451</v>
+        <v>0.6208773747725473</v>
       </c>
       <c r="H2">
-        <v>0.4663420849602744</v>
+        <v>0.6856196669878329</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05020739558362308</v>
+        <v>0.05044172146965664</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.5266900265155812</v>
+        <v>0.9441726390137362</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.610638913123182</v>
+        <v>0.9352176752354353</v>
       </c>
       <c r="C3">
-        <v>0.6682890912368862</v>
+        <v>0.2012804013143352</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.555156523810389</v>
+        <v>0.5768069957385507</v>
       </c>
       <c r="F3">
-        <v>2.187467420360562</v>
+        <v>2.331772135540007</v>
       </c>
       <c r="G3">
-        <v>0.7068074529087909</v>
+        <v>0.6064439058979758</v>
       </c>
       <c r="H3">
-        <v>0.4344296578925935</v>
+        <v>0.6850004223734345</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04530389869627527</v>
+        <v>0.04984953454162877</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5607185579591309</v>
+        <v>0.9573717346602706</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.363140160536318</v>
+        <v>0.8648972588064794</v>
       </c>
       <c r="C4">
-        <v>0.6067571860004932</v>
+        <v>0.1829853590511448</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5101643305919126</v>
+        <v>0.5671837325725022</v>
       </c>
       <c r="F4">
-        <v>2.027860087586703</v>
+        <v>2.304323275465237</v>
       </c>
       <c r="G4">
-        <v>0.6554033218547488</v>
+        <v>0.5982340069400038</v>
       </c>
       <c r="H4">
-        <v>0.4162818713317193</v>
+        <v>0.6851366307958244</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04246890094914235</v>
+        <v>0.04953422531249174</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5828612601202856</v>
+        <v>0.9659772779770215</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.262718503417773</v>
+        <v>0.8362881110776357</v>
       </c>
       <c r="C5">
-        <v>0.5817635295847197</v>
+        <v>0.1755195289977962</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4919906133376486</v>
+        <v>0.5633270900993068</v>
       </c>
       <c r="F5">
-        <v>1.963971591963556</v>
+        <v>2.293541300788732</v>
       </c>
       <c r="G5">
-        <v>0.6350503876365963</v>
+        <v>0.5950511024394558</v>
       </c>
       <c r="H5">
-        <v>0.409220504937295</v>
+        <v>0.6853215024652144</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.04135360829103618</v>
+        <v>0.04941779300844829</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5921855733113155</v>
+        <v>0.9696100427429712</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.246067432776897</v>
+        <v>0.8315404199576051</v>
       </c>
       <c r="C6">
-        <v>0.5776176422096455</v>
+        <v>0.1742792008863887</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4889820148284585</v>
+        <v>0.5626906167700909</v>
       </c>
       <c r="F6">
-        <v>1.953429009342642</v>
+        <v>2.29177529179772</v>
       </c>
       <c r="G6">
-        <v>0.631704921329316</v>
+        <v>0.5945323711357844</v>
       </c>
       <c r="H6">
-        <v>0.4080673155553853</v>
+        <v>0.6853599992424648</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.04117071334027855</v>
+        <v>0.04939918533725418</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5937516823499998</v>
+        <v>0.9702208638159604</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.361784185789475</v>
+        <v>0.8645112356727509</v>
       </c>
       <c r="C7">
-        <v>0.6064198121681841</v>
+        <v>0.1828847146394708</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.5099186085726686</v>
+        <v>0.5671314577738116</v>
       </c>
       <c r="F7">
-        <v>2.0269939601544</v>
+        <v>2.304176233884718</v>
       </c>
       <c r="G7">
-        <v>0.6551265089694596</v>
+        <v>0.5981904241921541</v>
       </c>
       <c r="H7">
-        <v>0.4161853246111065</v>
+        <v>0.6851386009035707</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.04245370312080254</v>
+        <v>0.0495326063522441</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5829858090034357</v>
+        <v>0.9660257609473852</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.876482152333494</v>
+        <v>1.010417019938927</v>
       </c>
       <c r="C8">
-        <v>0.7342878079084016</v>
+        <v>0.2207673463941546</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.60377694979654</v>
+        <v>0.5872979674275669</v>
       </c>
       <c r="F8">
-        <v>2.362082898608818</v>
+        <v>2.362447306122348</v>
       </c>
       <c r="G8">
-        <v>0.7638731189838239</v>
+        <v>0.6157645184207183</v>
       </c>
       <c r="H8">
-        <v>0.4550198183836898</v>
+        <v>0.6852986662868403</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04847755160711742</v>
+        <v>0.05022745959755071</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5381556362432427</v>
+        <v>0.9486195889842968</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.906809697767528</v>
+        <v>1.298043484719358</v>
       </c>
       <c r="C9">
-        <v>0.9893892108341049</v>
+        <v>0.2947332587150413</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.7946507475021747</v>
+        <v>0.6288998994232031</v>
       </c>
       <c r="F9">
-        <v>3.066018931167861</v>
+        <v>2.489596343397437</v>
       </c>
       <c r="G9">
-        <v>1.001106938391118</v>
+        <v>0.6554659106669476</v>
       </c>
       <c r="H9">
-        <v>0.5441221723965839</v>
+        <v>0.6897336610103935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06189353737916292</v>
+        <v>0.05197729242039628</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.4607962251704905</v>
+        <v>0.9184680104150615</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.683500170305592</v>
+        <v>1.51033079686448</v>
       </c>
       <c r="C10">
-        <v>1.181189410903869</v>
+        <v>0.3488940257901163</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.940715996461492</v>
+        <v>0.6607294495293985</v>
       </c>
       <c r="F10">
-        <v>3.621670501176425</v>
+        <v>2.591000059584331</v>
       </c>
       <c r="G10">
-        <v>1.19493396571616</v>
+        <v>0.687919151624385</v>
       </c>
       <c r="H10">
-        <v>0.6197463269234902</v>
+        <v>0.695538642732771</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07305061988964923</v>
+        <v>0.05350475428127766</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4113731586470024</v>
+        <v>0.8987495243295172</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.042867977066521</v>
+        <v>1.607128475660147</v>
       </c>
       <c r="C11">
-        <v>1.269836146556315</v>
+        <v>0.373497100714701</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.008862003522964</v>
+        <v>0.6754869515463184</v>
       </c>
       <c r="F11">
-        <v>3.885334916474335</v>
+        <v>2.638895997425436</v>
       </c>
       <c r="G11">
-        <v>1.288596771350058</v>
+        <v>0.7034161458230415</v>
       </c>
       <c r="H11">
-        <v>0.6569308738520192</v>
+        <v>0.6987400097721093</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07849098334247628</v>
+        <v>0.05425342547339795</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.3907456040657777</v>
+        <v>0.8903090979956474</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.179985876769024</v>
+        <v>1.643816446109952</v>
       </c>
       <c r="C12">
-        <v>1.303647015834542</v>
+        <v>0.3828087895452086</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.034952907158782</v>
+        <v>0.681115374457363</v>
       </c>
       <c r="F12">
-        <v>3.986985792147294</v>
+        <v>2.65728924739318</v>
       </c>
       <c r="G12">
-        <v>1.324972131756795</v>
+        <v>0.7093915334055509</v>
       </c>
       <c r="H12">
-        <v>0.6714664971855484</v>
+        <v>0.7000334988406962</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.08061145455776852</v>
+        <v>0.05454476730794511</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.3832247204816994</v>
+        <v>0.8871892462667503</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.150406320394495</v>
+        <v>1.635913574579035</v>
       </c>
       <c r="C13">
-        <v>1.29635374648592</v>
+        <v>0.3808035703910377</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.029320355660019</v>
+        <v>0.679901408948254</v>
       </c>
       <c r="F13">
-        <v>3.96500894923372</v>
+        <v>2.653316509398763</v>
       </c>
       <c r="G13">
-        <v>1.31709566575563</v>
+        <v>0.7080998436225343</v>
       </c>
       <c r="H13">
-        <v>0.6683148318705889</v>
+        <v>0.6997513021019302</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.08015195478675707</v>
+        <v>0.05448167155808648</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.3848311617505118</v>
+        <v>0.8878577630412963</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.054127037336912</v>
+        <v>1.610146159079591</v>
       </c>
       <c r="C14">
-        <v>1.27261267474114</v>
+        <v>0.3742632780289341</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.011002542005045</v>
+        <v>0.6759492015469419</v>
       </c>
       <c r="F14">
-        <v>3.893660100157177</v>
+        <v>2.640404076908595</v>
       </c>
       <c r="G14">
-        <v>1.29157048503572</v>
+        <v>0.7039055913293737</v>
       </c>
       <c r="H14">
-        <v>0.6581172810550413</v>
+        <v>0.6988447951694354</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.0786641783864539</v>
+        <v>0.05427723673250995</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.3901208936316038</v>
+        <v>0.8900508944998435</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.995292925138756</v>
+        <v>1.594367147568562</v>
       </c>
       <c r="C15">
-        <v>1.258103456956349</v>
+        <v>0.3702565158585571</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.9998208405002487</v>
+        <v>0.6735335823830866</v>
       </c>
       <c r="F15">
-        <v>3.850199815450026</v>
+        <v>2.632528251146823</v>
       </c>
       <c r="G15">
-        <v>1.276057469451246</v>
+        <v>0.7013504710890857</v>
       </c>
       <c r="H15">
-        <v>0.6519319234672309</v>
+        <v>0.6983001255493093</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07776097773746926</v>
+        <v>0.05415303790605464</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.3933995595820292</v>
+        <v>0.891404200446388</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.660149867741211</v>
+        <v>1.504009421826368</v>
       </c>
       <c r="C16">
-        <v>1.175427661412016</v>
+        <v>0.3472854592160957</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.936300091902126</v>
+        <v>0.659770615279939</v>
       </c>
       <c r="F16">
-        <v>3.604678519504972</v>
+        <v>2.587905673831727</v>
       </c>
       <c r="G16">
-        <v>1.188933110997766</v>
+        <v>0.6869212803194671</v>
       </c>
       <c r="H16">
-        <v>0.6173767371088843</v>
+        <v>0.6953407570504737</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07270307193261516</v>
+        <v>0.05345691814137865</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.4127605036623621</v>
+        <v>0.8993117998350257</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.456209723849554</v>
+        <v>1.44863614069277</v>
       </c>
       <c r="C17">
-        <v>1.125094223230121</v>
+        <v>0.3331845555223936</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.8977951717080401</v>
+        <v>0.651398765708052</v>
       </c>
       <c r="F17">
-        <v>3.457011583690587</v>
+        <v>2.560985138885911</v>
       </c>
       <c r="G17">
-        <v>1.136970798311808</v>
+        <v>0.6782584498738515</v>
       </c>
       <c r="H17">
-        <v>0.5969277592435844</v>
+        <v>0.6936692874635924</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0696989691622889</v>
+        <v>0.05304372478180852</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.4251289361457466</v>
+        <v>0.9042986397553747</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.339467096799353</v>
+        <v>1.41680826206067</v>
       </c>
       <c r="C18">
-        <v>1.096272371913699</v>
+        <v>0.3250707969374105</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.8758054427311777</v>
+        <v>0.6466096677746833</v>
       </c>
       <c r="F18">
-        <v>3.373087024921688</v>
+        <v>2.545667343688365</v>
       </c>
       <c r="G18">
-        <v>1.107592361049001</v>
+        <v>0.67334480318533</v>
       </c>
       <c r="H18">
-        <v>0.5854243535014803</v>
+        <v>0.692760638571059</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06800491695015154</v>
+        <v>0.05281112694923706</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.4324160013419274</v>
+        <v>0.9072167754711344</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.300031273796606</v>
+        <v>1.40603555555515</v>
       </c>
       <c r="C19">
-        <v>1.086534694102369</v>
+        <v>0.3223230505607262</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.8683859472954794</v>
+        <v>0.6449926533293677</v>
       </c>
       <c r="F19">
-        <v>3.344838158957458</v>
+        <v>2.540509482555478</v>
       </c>
       <c r="G19">
-        <v>1.097729365009883</v>
+        <v>0.6716929298594607</v>
       </c>
       <c r="H19">
-        <v>0.5815723051216537</v>
+        <v>0.6924620255794025</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06743692634299947</v>
+        <v>0.05273323945075958</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.4349123257343166</v>
+        <v>0.9082133598120876</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.477860590060232</v>
+        <v>1.454528508586066</v>
       </c>
       <c r="C20">
-        <v>1.130438708291337</v>
+        <v>0.3346859610388151</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.9018775278206306</v>
+        <v>0.6522872544139631</v>
       </c>
       <c r="F20">
-        <v>3.472624849780459</v>
+        <v>2.563833661795911</v>
       </c>
       <c r="G20">
-        <v>1.142448795336406</v>
+        <v>0.6791734726411676</v>
       </c>
       <c r="H20">
-        <v>0.5990774799271321</v>
+        <v>0.693841756094514</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07001520615099821</v>
+        <v>0.05308718552371516</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.4237942210217867</v>
+        <v>0.9037626227822884</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.082377157271424</v>
+        <v>1.61771378255844</v>
       </c>
       <c r="C21">
-        <v>1.279579070332659</v>
+        <v>0.3761844545798567</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.016374826021433</v>
+        <v>0.6771089722386989</v>
       </c>
       <c r="F21">
-        <v>3.914565885474047</v>
+        <v>2.644189804658907</v>
       </c>
       <c r="G21">
-        <v>1.299042215946855</v>
+        <v>0.7051346287312299</v>
       </c>
       <c r="H21">
-        <v>0.6610997430931036</v>
+        <v>0.6991088498126885</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.07909946982803717</v>
+        <v>0.05433707074509897</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.3885590910553347</v>
+        <v>0.8894046447761284</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.483576073937513</v>
+        <v>1.724555994607329</v>
       </c>
       <c r="C22">
-        <v>1.378486325420852</v>
+        <v>0.403277230741935</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.092892592995469</v>
+        <v>0.6935650458163849</v>
       </c>
       <c r="F22">
-        <v>4.214065784452288</v>
+        <v>2.698200880986235</v>
       </c>
       <c r="G22">
-        <v>1.406738787893232</v>
+        <v>0.722726190445087</v>
       </c>
       <c r="H22">
-        <v>0.7043151015890601</v>
+        <v>0.7030247738364039</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.08539254917753425</v>
+        <v>0.05519966450258096</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.3672360302098028</v>
+        <v>0.8804660261602137</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.268830064220595</v>
+        <v>1.667514751658189</v>
       </c>
       <c r="C23">
-        <v>1.32555117316565</v>
+        <v>0.3888199279095943</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.051884235684923</v>
+        <v>0.6847607199329246</v>
       </c>
       <c r="F23">
-        <v>4.053153712678949</v>
+        <v>2.669236804836089</v>
       </c>
       <c r="G23">
-        <v>1.348726478749825</v>
+        <v>0.7132796127514496</v>
       </c>
       <c r="H23">
-        <v>0.6809852394999609</v>
+        <v>0.70089124640009</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.08199838622592637</v>
+        <v>0.05473506623414437</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.378452040422026</v>
+        <v>0.8851959366293016</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.46807067172341</v>
+        <v>1.451864547399964</v>
       </c>
       <c r="C24">
-        <v>1.12802210987067</v>
+        <v>0.3340071972965575</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.9000314389606103</v>
+        <v>0.651885493953543</v>
       </c>
       <c r="F24">
-        <v>3.465563085092583</v>
+        <v>2.562545348914711</v>
       </c>
       <c r="G24">
-        <v>1.139970658584332</v>
+        <v>0.6787595831052897</v>
       </c>
       <c r="H24">
-        <v>0.5981048072529518</v>
+        <v>0.6937636201539874</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06987213305623641</v>
+        <v>0.05306752150388405</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.4243970983771845</v>
+        <v>0.9040047967863316</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.625160279314628</v>
+        <v>1.220066589971395</v>
       </c>
       <c r="C25">
-        <v>0.9197449238274373</v>
+        <v>0.2747565230165776</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.7421229893635655</v>
+        <v>0.6174242482057508</v>
       </c>
       <c r="F25">
-        <v>2.869611954957236</v>
+        <v>2.453806385166644</v>
       </c>
       <c r="G25">
-        <v>0.9338849938235398</v>
+        <v>0.6441554256199851</v>
       </c>
       <c r="H25">
-        <v>0.5184115368157194</v>
+        <v>0.6880891633542063</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05806126108493004</v>
+        <v>0.05146186458701862</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.4804990745312594</v>
+        <v>0.9261978924210084</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_182/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_182/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.050050253866516</v>
+        <v>3.017129166467555</v>
       </c>
       <c r="C2">
-        <v>0.2310093480059265</v>
+        <v>0.7691706015200737</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.5929007669134876</v>
+        <v>0.629613516816093</v>
       </c>
       <c r="F2">
-        <v>2.3791024842524</v>
+        <v>2.455711946742767</v>
       </c>
       <c r="G2">
-        <v>0.6208773747725473</v>
+        <v>0.7947958880584594</v>
       </c>
       <c r="H2">
-        <v>0.6856196669878329</v>
+        <v>0.4663420849602744</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05044172146965664</v>
+        <v>0.05020739558374032</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9441726390137362</v>
+        <v>0.5266900265155883</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9352176752354353</v>
+        <v>2.610638913123296</v>
       </c>
       <c r="C3">
-        <v>0.2012804013143352</v>
+        <v>0.6682890912368009</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.5768069957385507</v>
+        <v>0.5551565238104175</v>
       </c>
       <c r="F3">
-        <v>2.331772135540007</v>
+        <v>2.187467420360562</v>
       </c>
       <c r="G3">
-        <v>0.6064439058979758</v>
+        <v>0.7068074529087482</v>
       </c>
       <c r="H3">
-        <v>0.6850004223734345</v>
+        <v>0.4344296578925935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04984953454162877</v>
+        <v>0.04530389869634277</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9573717346602706</v>
+        <v>0.5607185579591558</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8648972588064794</v>
+        <v>2.363140160536204</v>
       </c>
       <c r="C4">
-        <v>0.1829853590511448</v>
+        <v>0.6067571860005216</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5671837325725022</v>
+        <v>0.5101643305919197</v>
       </c>
       <c r="F4">
-        <v>2.304323275465237</v>
+        <v>2.027860087586703</v>
       </c>
       <c r="G4">
-        <v>0.5982340069400038</v>
+        <v>0.655403321854763</v>
       </c>
       <c r="H4">
-        <v>0.6851366307958244</v>
+        <v>0.4162818713318472</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04953422531249174</v>
+        <v>0.04246890094914946</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9659772779770215</v>
+        <v>0.5828612601202856</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8362881110776357</v>
+        <v>2.262718503417886</v>
       </c>
       <c r="C5">
-        <v>0.1755195289977962</v>
+        <v>0.5817635295848049</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.5633270900993068</v>
+        <v>0.4919906133376415</v>
       </c>
       <c r="F5">
-        <v>2.293541300788732</v>
+        <v>1.963971591963556</v>
       </c>
       <c r="G5">
-        <v>0.5950511024394558</v>
+        <v>0.6350503876366389</v>
       </c>
       <c r="H5">
-        <v>0.6853215024652144</v>
+        <v>0.409220504937295</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.04941779300844829</v>
+        <v>0.04135360829098289</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9696100427429712</v>
+        <v>0.5921855733113084</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8315404199576051</v>
+        <v>2.246067432776897</v>
       </c>
       <c r="C6">
-        <v>0.1742792008863887</v>
+        <v>0.5776176422098729</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.5626906167700909</v>
+        <v>0.4889820148284585</v>
       </c>
       <c r="F6">
-        <v>2.29177529179772</v>
+        <v>1.953429009342656</v>
       </c>
       <c r="G6">
-        <v>0.5945323711357844</v>
+        <v>0.631704921329316</v>
       </c>
       <c r="H6">
-        <v>0.6853599992424648</v>
+        <v>0.4080673155553995</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.04939918533725418</v>
+        <v>0.04117071334035316</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9702208638159604</v>
+        <v>0.5937516823500211</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8645112356727509</v>
+        <v>2.361784185789531</v>
       </c>
       <c r="C7">
-        <v>0.1828847146394708</v>
+        <v>0.6064198121682978</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.5671314577738116</v>
+        <v>0.5099186085726615</v>
       </c>
       <c r="F7">
-        <v>2.304176233884718</v>
+        <v>2.026993960154385</v>
       </c>
       <c r="G7">
-        <v>0.5981904241921541</v>
+        <v>0.6551265089695306</v>
       </c>
       <c r="H7">
-        <v>0.6851386009035707</v>
+        <v>0.4161853246109928</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0495326063522441</v>
+        <v>0.04245370312080254</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9660257609473852</v>
+        <v>0.5829858090034357</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.010417019938927</v>
+        <v>2.876482152333494</v>
       </c>
       <c r="C8">
-        <v>0.2207673463941546</v>
+        <v>0.7342878079085438</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.5872979674275669</v>
+        <v>0.60377694979654</v>
       </c>
       <c r="F8">
-        <v>2.362447306122348</v>
+        <v>2.362082898608818</v>
       </c>
       <c r="G8">
-        <v>0.6157645184207183</v>
+        <v>0.7638731189838239</v>
       </c>
       <c r="H8">
-        <v>0.6852986662868403</v>
+        <v>0.455019818383704</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05022745959755071</v>
+        <v>0.04847755160711031</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9486195889842968</v>
+        <v>0.5381556362432995</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.298043484719358</v>
+        <v>3.906809697767528</v>
       </c>
       <c r="C9">
-        <v>0.2947332587150413</v>
+        <v>0.9893892108338775</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.6288998994232031</v>
+        <v>0.7946507475021178</v>
       </c>
       <c r="F9">
-        <v>2.489596343397437</v>
+        <v>3.066018931167861</v>
       </c>
       <c r="G9">
-        <v>0.6554659106669476</v>
+        <v>1.001106938391089</v>
       </c>
       <c r="H9">
-        <v>0.6897336610103935</v>
+        <v>0.5441221723964702</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05197729242039628</v>
+        <v>0.06189353737898529</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9184680104150615</v>
+        <v>0.4607962251705473</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.51033079686448</v>
+        <v>4.683500170305592</v>
       </c>
       <c r="C10">
-        <v>0.3488940257901163</v>
+        <v>1.18118941090404</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6607294495293985</v>
+        <v>0.9407159964614777</v>
       </c>
       <c r="F10">
-        <v>2.591000059584331</v>
+        <v>3.621670501176425</v>
       </c>
       <c r="G10">
-        <v>0.687919151624385</v>
+        <v>1.194933965716046</v>
       </c>
       <c r="H10">
-        <v>0.695538642732771</v>
+        <v>0.6197463269233765</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05350475428127766</v>
+        <v>0.07305061988964923</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8987495243295172</v>
+        <v>0.4113731586470095</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.607128475660147</v>
+        <v>5.042867977066635</v>
       </c>
       <c r="C11">
-        <v>0.373497100714701</v>
+        <v>1.269836146556315</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6754869515463184</v>
+        <v>1.008862003522978</v>
       </c>
       <c r="F11">
-        <v>2.638895997425436</v>
+        <v>3.885334916474307</v>
       </c>
       <c r="G11">
-        <v>0.7034161458230415</v>
+        <v>1.288596771350115</v>
       </c>
       <c r="H11">
-        <v>0.6987400097721093</v>
+        <v>0.6569308738521329</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05425342547339795</v>
+        <v>0.07849098334261839</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8903090979956474</v>
+        <v>0.3907456040657848</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.643816446109952</v>
+        <v>5.179985876769081</v>
       </c>
       <c r="C12">
-        <v>0.3828087895452086</v>
+        <v>1.303647015834429</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.681115374457363</v>
+        <v>1.034952907158726</v>
       </c>
       <c r="F12">
-        <v>2.65728924739318</v>
+        <v>3.986985792147351</v>
       </c>
       <c r="G12">
-        <v>0.7093915334055509</v>
+        <v>1.324972131756738</v>
       </c>
       <c r="H12">
-        <v>0.7000334988406962</v>
+        <v>0.67146649718552</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05454476730794511</v>
+        <v>0.08061145455778274</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8871892462667503</v>
+        <v>0.3832247204817065</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.635913574579035</v>
+        <v>5.150406320394609</v>
       </c>
       <c r="C13">
-        <v>0.3808035703910377</v>
+        <v>1.29635374648575</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.679901408948254</v>
+        <v>1.029320355660033</v>
       </c>
       <c r="F13">
-        <v>2.653316509398763</v>
+        <v>3.96500894923372</v>
       </c>
       <c r="G13">
-        <v>0.7080998436225343</v>
+        <v>1.317095665755687</v>
       </c>
       <c r="H13">
-        <v>0.6997513021019302</v>
+        <v>0.6683148318705605</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05448167155808648</v>
+        <v>0.08015195478684234</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8878577630412963</v>
+        <v>0.3848311617505189</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.610146159079591</v>
+        <v>5.054127037337025</v>
       </c>
       <c r="C14">
-        <v>0.3742632780289341</v>
+        <v>1.272612674741026</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6759492015469419</v>
+        <v>1.011002542005016</v>
       </c>
       <c r="F14">
-        <v>2.640404076908595</v>
+        <v>3.893660100157149</v>
       </c>
       <c r="G14">
-        <v>0.7039055913293737</v>
+        <v>1.291570485035749</v>
       </c>
       <c r="H14">
-        <v>0.6988447951694354</v>
+        <v>0.658117281055155</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05427723673250995</v>
+        <v>0.07866417838637574</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8900508944998435</v>
+        <v>0.3901208936315967</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.594367147568562</v>
+        <v>4.995292925138813</v>
       </c>
       <c r="C15">
-        <v>0.3702565158585571</v>
+        <v>1.258103456956235</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6735335823830866</v>
+        <v>0.9998208405002771</v>
       </c>
       <c r="F15">
-        <v>2.632528251146823</v>
+        <v>3.850199815450054</v>
       </c>
       <c r="G15">
-        <v>0.7013504710890857</v>
+        <v>1.276057469451274</v>
       </c>
       <c r="H15">
-        <v>0.6983001255493093</v>
+        <v>0.6519319234673446</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05415303790605464</v>
+        <v>0.07776097773751189</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.891404200446388</v>
+        <v>0.3933995595820576</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.504009421826368</v>
+        <v>4.660149867741325</v>
       </c>
       <c r="C16">
-        <v>0.3472854592160957</v>
+        <v>1.175427661411959</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.659770615279939</v>
+        <v>0.9363000919020834</v>
       </c>
       <c r="F16">
-        <v>2.587905673831727</v>
+        <v>3.604678519505029</v>
       </c>
       <c r="G16">
-        <v>0.6869212803194671</v>
+        <v>1.188933110997738</v>
       </c>
       <c r="H16">
-        <v>0.6953407570504737</v>
+        <v>0.6173767371087706</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05345691814137865</v>
+        <v>0.072703071932672</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8993117998350257</v>
+        <v>0.4127605036623692</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.44863614069277</v>
+        <v>4.456209723849611</v>
       </c>
       <c r="C17">
-        <v>0.3331845555223936</v>
+        <v>1.125094223230121</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.651398765708052</v>
+        <v>0.8977951717080686</v>
       </c>
       <c r="F17">
-        <v>2.560985138885911</v>
+        <v>3.457011583690559</v>
       </c>
       <c r="G17">
-        <v>0.6782584498738515</v>
+        <v>1.136970798311751</v>
       </c>
       <c r="H17">
-        <v>0.6936692874635924</v>
+        <v>0.5969277592436981</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05304372478180852</v>
+        <v>0.06969896916233154</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9042986397553747</v>
+        <v>0.4251289361457893</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.41680826206067</v>
+        <v>4.339467096799126</v>
       </c>
       <c r="C18">
-        <v>0.3250707969374105</v>
+        <v>1.096272371913926</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.6466096677746833</v>
+        <v>0.8758054427311492</v>
       </c>
       <c r="F18">
-        <v>2.545667343688365</v>
+        <v>3.373087024921716</v>
       </c>
       <c r="G18">
-        <v>0.67334480318533</v>
+        <v>1.107592361048916</v>
       </c>
       <c r="H18">
-        <v>0.692760638571059</v>
+        <v>0.5854243535013666</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05281112694923706</v>
+        <v>0.0680049169502297</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9072167754711344</v>
+        <v>0.4324160013419842</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.40603555555515</v>
+        <v>4.300031273796378</v>
       </c>
       <c r="C19">
-        <v>0.3223230505607262</v>
+        <v>1.086534694102198</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.6449926533293677</v>
+        <v>0.8683859472954509</v>
       </c>
       <c r="F19">
-        <v>2.540509482555478</v>
+        <v>3.344838158957458</v>
       </c>
       <c r="G19">
-        <v>0.6716929298594607</v>
+        <v>1.097729365009911</v>
       </c>
       <c r="H19">
-        <v>0.6924620255794025</v>
+        <v>0.5815723051216537</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05273323945075958</v>
+        <v>0.06743692634306342</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9082133598120876</v>
+        <v>0.4349123257343166</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.454528508586066</v>
+        <v>4.477860590060175</v>
       </c>
       <c r="C20">
-        <v>0.3346859610388151</v>
+        <v>1.130438708291479</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6522872544139631</v>
+        <v>0.9018775278206306</v>
       </c>
       <c r="F20">
-        <v>2.563833661795911</v>
+        <v>3.472624849780459</v>
       </c>
       <c r="G20">
-        <v>0.6791734726411676</v>
+        <v>1.142448795336435</v>
       </c>
       <c r="H20">
-        <v>0.693841756094514</v>
+        <v>0.5990774799271321</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05308718552371516</v>
+        <v>0.07001520615086321</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9037626227822884</v>
+        <v>0.4237942210217298</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.61771378255844</v>
+        <v>5.082377157271594</v>
       </c>
       <c r="C21">
-        <v>0.3761844545798567</v>
+        <v>1.279579070332431</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6771089722386989</v>
+        <v>1.016374826021476</v>
       </c>
       <c r="F21">
-        <v>2.644189804658907</v>
+        <v>3.914565885473991</v>
       </c>
       <c r="G21">
-        <v>0.7051346287312299</v>
+        <v>1.299042215946798</v>
       </c>
       <c r="H21">
-        <v>0.6991088498126885</v>
+        <v>0.6610997430930752</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05433707074509897</v>
+        <v>0.0790994698278169</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8894046447761284</v>
+        <v>0.3885590910553418</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.724555994607329</v>
+        <v>5.48357607393757</v>
       </c>
       <c r="C22">
-        <v>0.403277230741935</v>
+        <v>1.378486325420852</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.6935650458163849</v>
+        <v>1.092892592995426</v>
       </c>
       <c r="F22">
-        <v>2.698200880986235</v>
+        <v>4.214065784452288</v>
       </c>
       <c r="G22">
-        <v>0.722726190445087</v>
+        <v>1.406738787893261</v>
       </c>
       <c r="H22">
-        <v>0.7030247738364039</v>
+        <v>0.7043151015890601</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05519966450258096</v>
+        <v>0.08539254917742767</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8804660261602137</v>
+        <v>0.3672360302098099</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.667514751658189</v>
+        <v>5.268830064220595</v>
       </c>
       <c r="C23">
-        <v>0.3888199279095943</v>
+        <v>1.325551173165763</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.6847607199329246</v>
+        <v>1.051884235684895</v>
       </c>
       <c r="F23">
-        <v>2.669236804836089</v>
+        <v>4.053153712678949</v>
       </c>
       <c r="G23">
-        <v>0.7132796127514496</v>
+        <v>1.348726478749711</v>
       </c>
       <c r="H23">
-        <v>0.70089124640009</v>
+        <v>0.6809852394999609</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05473506623414437</v>
+        <v>0.08199838622581268</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8851959366293016</v>
+        <v>0.3784520404220189</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.451864547399964</v>
+        <v>4.468070671723524</v>
       </c>
       <c r="C24">
-        <v>0.3340071972965575</v>
+        <v>1.128022109870557</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.651885493953543</v>
+        <v>0.9000314389606103</v>
       </c>
       <c r="F24">
-        <v>2.562545348914711</v>
+        <v>3.465563085092612</v>
       </c>
       <c r="G24">
-        <v>0.6787595831052897</v>
+        <v>1.139970658584303</v>
       </c>
       <c r="H24">
-        <v>0.6937636201539874</v>
+        <v>0.5981048072530371</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05306752150388405</v>
+        <v>0.06987213305618667</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9040047967863316</v>
+        <v>0.4243970983771845</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.220066589971395</v>
+        <v>3.625160279314798</v>
       </c>
       <c r="C25">
-        <v>0.2747565230165776</v>
+        <v>0.9197449238275794</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.6174242482057508</v>
+        <v>0.742122989363537</v>
       </c>
       <c r="F25">
-        <v>2.453806385166644</v>
+        <v>2.869611954957236</v>
       </c>
       <c r="G25">
-        <v>0.6441554256199851</v>
+        <v>0.9338849938234972</v>
       </c>
       <c r="H25">
-        <v>0.6880891633542063</v>
+        <v>0.5184115368157194</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05146186458701862</v>
+        <v>0.05806126108492293</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9261978924210084</v>
+        <v>0.4804990745312523</v>
       </c>
       <c r="O25">
         <v>0</v>
